--- a/stats.xlsx
+++ b/stats.xlsx
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>mystery</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>documentary</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>thrill</t>
+          <t>port</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -471,7 +471,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>sorry</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -481,7 +481,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>romantic</t>
+          <t>Day_13</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -491,7 +491,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>documentary</t>
+          <t>period</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -501,7 +501,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>thrill</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -511,7 +511,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Day_30</t>
+          <t>Day_28</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -521,7 +521,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>thrilled</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -531,7 +531,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t>music</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -541,7 +541,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>sorry</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -551,7 +551,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>Day_27</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -561,7 +561,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>sequel</t>
+          <t>Day_24</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>thrilled</t>
+          <t>Day_21</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -581,7 +581,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>Day_2</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -591,7 +591,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Day_27</t>
+          <t>Day_18</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -601,7 +601,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Day_17</t>
+          <t>Day_1</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -611,7 +611,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>based on a true story</t>
+          <t>Day_11</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -621,7 +621,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Day_9</t>
+          <t>Day_30</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -631,7 +631,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Day_13</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -641,7 +641,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>adaptation</t>
+          <t>Day_14</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -651,7 +651,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>screenplay</t>
+          <t>based on a true story</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -661,641 +661,641 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Day_31</t>
+          <t>Day_4</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3.712635221665642e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Day_3</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.0001869661075234299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Month_8</t>
+          <t>screenplay</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.000525925829215557</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Day_7</t>
+          <t>original</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.0006625460585560354</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Day_19</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0007018045892726203</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Month_4</t>
+          <t>sequel</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.0008139798375061267</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Month_9</t>
+          <t>Year_2010</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.001003805147620675</v>
+        <v>8.057119314576662e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Day_11</t>
+          <t>Month_3</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.001011543684925303</v>
+        <v>6.769889125421584e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Day_21</t>
+          <t>Day_17</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.001192427701449317</v>
+        <v>8.427661285334364e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Day_6</t>
+          <t>sport</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.001271296738153226</v>
+        <v>0.0001028011254342869</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Month_3</t>
+          <t>romantic</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.001288402917797844</v>
+        <v>0.0001742853589638781</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Day_14</t>
+          <t>Month_2</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.001357550596782563</v>
+        <v>0.0001755591837389172</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>horror</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.001528116641163935</v>
+        <v>0.0001948512420685182</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Day_23</t>
+          <t>Year_2009</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.001727680096087322</v>
+        <v>0.0002276016136305662</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>Day_9</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.001824691932108811</v>
+        <v>0.0002691978398314017</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Year_2009</t>
+          <t>Day_5</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.002097444680025101</v>
+        <v>0.0003204788193198492</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Day_29</t>
+          <t>Day_19</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.002189266737513282</v>
+        <v>0.0003965751431066262</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Year_2016</t>
+          <t>horror</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.002283874453715281</v>
+        <v>0.000405620539149205</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Day_2</t>
+          <t>Month_9</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.002417350582268515</v>
+        <v>0.0005121268997250329</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Day_15</t>
+          <t>Year_2008</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.002854774465020968</v>
+        <v>0.0016143744754091</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>war</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.00291185171308183</v>
+        <v>0.001635422389588319</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>sci-fi</t>
+          <t>Year_2011</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.00307261547816554</v>
+        <v>0.001719242902208201</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Day_12</t>
+          <t>Month_7</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.003092770632897021</v>
+        <v>0.001724085399062594</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Day_4</t>
+          <t>Day_26</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.003098598995103207</v>
+        <v>0.001736062876388351</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Month_1</t>
+          <t>Year_2013</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.003475241087589709</v>
+        <v>0.00211048267016297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Month_2</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.003498040355389987</v>
+        <v>0.002186573806693085</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Day_18</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.003519511715556121</v>
+        <v>0.002256150766350012</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Year_2013</t>
+          <t>Day_31</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003737920770074283</v>
+        <v>0.002292323869610934</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>Year_2014</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003740322933711002</v>
+        <v>0.00238260655197418</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>Month_6</t>
+          <t>Day_29</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.003746241105001706</v>
+        <v>0.002392560725341659</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>Day_20</t>
+          <t>sci-fi</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.003949380821198444</v>
+        <v>0.002555900369388255</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>Day_12</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.003970590451006592</v>
+        <v>0.002578864353312301</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>Day_26</t>
+          <t>Year_2016</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.004353362251216365</v>
+        <v>0.002668215053205489</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>Day_5</t>
+          <t>Month_5</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.004452305477561525</v>
+        <v>0.00275368984148383</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>Day_28</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.004455881286370251</v>
+        <v>0.002781787979462398</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.00453754051497589</v>
+        <v>0.002851865616312438</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.004777725859187022</v>
+        <v>0.002876791400452329</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>Month_5</t>
+          <t>biography</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.004939239383742596</v>
+        <v>0.002964937488831415</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>Day_1</t>
+          <t>comedy</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.005229482432590826</v>
+        <v>0.004002498936038268</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>Year_2017</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.00523462633824463</v>
+        <v>0.00402764973639882</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>Day_8</t>
+          <t>Day_16</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.00536730153319439</v>
+        <v>0.004063165708124411</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>Year_2012</t>
+          <t>Month_6</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.005422844587241763</v>
+        <v>0.004315158886613826</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>Year_2008</t>
+          <t>drama</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.00553256391439172</v>
+        <v>0.004387245704934055</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>Year_2014</t>
+          <t>Day_20</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.005589861074063673</v>
+        <v>0.004656855687596382</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>Day_16</t>
+          <t>Day_15</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.005593182329754871</v>
+        <v>0.004711277300898748</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>Day_24</t>
+          <t>Month_4</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.00566635655390306</v>
+        <v>0.005196218941663597</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>Month_11</t>
+          <t>Day_3</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.005915442587007168</v>
+        <v>0.005671951172460309</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.006339437190040396</v>
+        <v>0.005700100559966169</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>Year_2011</t>
+          <t>romance</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.007501632952305789</v>
+        <v>0.006013832603415657</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>Month_12</t>
+          <t>Day_10</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.007540851752773387</v>
+        <v>0.006077786831422098</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>Day_25</t>
+          <t>Month_8</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.007723180294560056</v>
+        <v>0.006125644280165052</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>Day_10</t>
+          <t>Day_7</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.007939284351274093</v>
+        <v>0.006548702121061588</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>Day_6</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.007966045410957209</v>
+        <v>0.006639748282499454</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>Month_11</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.008062015085268067</v>
+        <v>0.006822589611437087</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>Month_7</t>
+          <t>Month_10</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.008183661099711087</v>
+        <v>0.007803604393805032</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>Year_2007</t>
+          <t>Day_8</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.008266874918711349</v>
+        <v>0.007909812111146868</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>Day_22</t>
+          <t>Month_12</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.008956925093496382</v>
+        <v>0.009671600749578641</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>drama</t>
+          <t>Day_22</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.008957300124924664</v>
+        <v>0.01047837899957774</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>Year_2017</t>
+          <t>history</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.009324208235133809</v>
+        <v>0.01051179308154354</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>Year_2010</t>
+          <t>Year_2007</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.009383599751167253</v>
+        <v>0.01098203491600712</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>comedy</t>
+          <t>Month_1</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01015672424643303</v>
+        <v>0.01169748588756811</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>Month_10</t>
+          <t>Day_25</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.01067558195008072</v>
+        <v>0.0118980315544646</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>animation</t>
+          <t>Day_23</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.01115505784585756</v>
+        <v>0.01373455575565915</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>romance</t>
+          <t>Year_2012</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.01762665489135238</v>
+        <v>0.01530409625905329</v>
       </c>
     </row>
     <row r="88">
@@ -1305,67 +1305,67 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.01912950803625215</v>
+        <v>0.02434866776289209</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>opening weekend</t>
+          <t>budget recovered opening weekend</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.04192186003184687</v>
+        <v>0.0394650924050178</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>imdb rating</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.04476036128910675</v>
+        <v>0.04385112662672659</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>imdb rating</t>
+          <t>opening weekend</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.04815618223967459</v>
+        <v>0.04506182563636171</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>budget ($million)</t>
+          <t>foreign gross</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05005119403372681</v>
+        <v>0.05452938590236588</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>foreign gross</t>
+          <t>budget ($million)</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05630730722149769</v>
+        <v>0.05737982066237374</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="inlineStr">
         <is>
-          <t>budget recovered opening weekend</t>
+          <t>budget recovered</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.05816362589089101</v>
+        <v>0.05797185620173987</v>
       </c>
     </row>
     <row r="95">
@@ -1375,27 +1375,27 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.06518083573412949</v>
+        <v>0.08280355095645556</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="inlineStr">
         <is>
-          <t>budget recovered</t>
+          <t>average audience</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.0745163953089146</v>
+        <v>0.0870889565673509</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
         <is>
-          <t>average audience</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.1000011054400868</v>
+        <v>0.08901599641857669</v>
       </c>
     </row>
     <row r="98">
@@ -1405,7 +1405,7 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.1402286259656771</v>
+        <v>0.1765108318634113</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>documentary</t>
+          <t>sequel</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>port</t>
+          <t>based on a true story</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -471,7 +471,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>sorry</t>
+          <t>_august</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -481,7 +481,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Day_13</t>
+          <t>_april</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -501,7 +501,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>thrill</t>
+          <t>documentary</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -511,7 +511,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Day_28</t>
+          <t>horror</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -521,7 +521,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>thrilled</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -531,7 +531,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>music</t>
+          <t>screenplay</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -541,7 +541,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t>original</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -551,861 +551,381 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Day_27</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>6.313638385686565e-06</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Day_24</t>
+          <t>mystery</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>6.865709246663202e-06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Day_21</t>
+          <t>_september</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.0002111755568490331</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Day_2</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.001542873924331416</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Day_18</t>
+          <t>_february</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.002496564360971142</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Day_1</t>
+          <t>_june</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.002526173527991708</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Day_11</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.002563198118753674</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Day_30</t>
+          <t>thrilled</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.002654364202060568</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>_january</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.003463546696318383</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Day_14</t>
+          <t>history</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.003519194002057682</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>based on a true story</t>
+          <t>war</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.003668614729892518</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Day_4</t>
+          <t>_july</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.004779470842992843</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>adaptation</t>
+          <t>_october</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.005009510171515635</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>screenplay</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.006936487152046443</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>_march</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.007245245031934726</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>_may</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.007365802053876279</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>sequel</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.007488944819780281</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Year_2010</t>
+          <t>biography</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>8.057119314576662e-06</v>
+        <v>0.007900690582335416</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Month_3</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>6.769889125421584e-05</v>
+        <v>0.009643692966293312</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Day_17</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.427661285334364e-05</v>
+        <v>0.009995940744440988</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>sport</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.0001028011254342869</v>
+        <v>0.01102620198044317</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>romantic</t>
+          <t>comedy</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0001742853589638781</v>
+        <v>0.01111471395214925</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Month_2</t>
+          <t>sci-fi</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0001755591837389172</v>
+        <v>0.01157779187554784</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>_november</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0001948512420685182</v>
+        <v>0.01252980933550101</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Year_2009</t>
+          <t>drama</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0002276016136305662</v>
+        <v>0.0126600854486913</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>Day_9</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0002691978398314017</v>
+        <v>0.0130337840771673</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Day_5</t>
+          <t>romantic</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.0003204788193198492</v>
+        <v>0.01484475269622431</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Day_19</t>
+          <t>_december</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0003965751431066262</v>
+        <v>0.01809379846085644</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>horror</t>
+          <t>foreign gross</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.000405620539149205</v>
+        <v>0.02529127690582441</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Month_9</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0005121268997250329</v>
+        <v>0.02995633927408201</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Year_2008</t>
+          <t>budget recovered opening weekend</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0016143744754091</v>
+        <v>0.0493824571219856</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>budget ($million)</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.001635422389588319</v>
+        <v>0.06643371827282055</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Year_2011</t>
+          <t>opening weekend</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001719242902208201</v>
+        <v>0.07209571024212909</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Month_7</t>
+          <t>imdb rating</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001724085399062594</v>
+        <v>0.07579319630980838</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Day_26</t>
+          <t>domestic gross</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.001736062876388351</v>
+        <v>0.09186465733453328</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Year_2013</t>
+          <t>budget recovered</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.00211048267016297</v>
+        <v>0.1119801304541397</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>average audience</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.002186573806693085</v>
+        <v>0.1356733119042677</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>average critics</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.002256150766350012</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Day_31</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.002292323869610934</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t>Year_2014</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.00238260655197418</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Day_29</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.002392560725341659</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t>sci-fi</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.002555900369388255</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Day_12</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.002578864353312301</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Year_2016</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.002668215053205489</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Month_5</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.00275368984148383</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>family</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.002781787979462398</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t>adventure</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.002851865616312438</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>animation</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.002876791400452329</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>biography</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.002964937488831415</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>comedy</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.004002498936038268</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>Year_2017</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.00402764973639882</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>Day_16</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.004063165708124411</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t>Month_6</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.004315158886613826</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>drama</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.004387245704934055</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Day_20</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.004656855687596382</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>Day_15</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.004711277300898748</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>Month_4</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.005196218941663597</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Day_3</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.005671951172460309</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>fantasy</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.005700100559966169</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>romance</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.006013832603415657</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Day_10</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.006077786831422098</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Month_8</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.006125644280165052</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Day_7</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.006548702121061588</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Day_6</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.006639748282499454</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Month_11</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.006822589611437087</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Month_10</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.007803604393805032</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Day_8</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.007909812111146868</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>Month_12</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.009671600749578641</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>Day_22</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.01047837899957774</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.01051179308154354</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>Year_2007</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.01098203491600712</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Month_1</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.01169748588756811</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Day_25</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.0118980315544646</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Day_23</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.01373455575565915</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Year_2012</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.01530409625905329</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Year_2015</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.02434866776289209</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>budget recovered opening weekend</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.0394650924050178</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>imdb rating</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.04385112662672659</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>opening weekend</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.04506182563636171</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>foreign gross</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.05452938590236588</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>budget ($million)</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.05737982066237374</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>budget recovered</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.05797185620173987</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>domestic gross</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.08280355095645556</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>average audience</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.0870889565673509</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.08901599641857669</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>average critics</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.1765108318634113</v>
+        <v>0.1476235955217543</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>Best Cinematography</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>sequel</t>
+          <t xml:space="preserve"> Best Sound Mixing</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>based on a true story</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -471,7 +471,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>_august</t>
+          <t xml:space="preserve"> Best Supporting Actor</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -481,7 +481,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>_april</t>
+          <t xml:space="preserve"> Best Visual Effects</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -491,7 +491,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t xml:space="preserve"> Cinematography</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -511,7 +511,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>horror</t>
+          <t>Writing (adapted screenplay)</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -521,7 +521,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>adaptation</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -531,7 +531,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>screenplay</t>
+          <t>Visual Effects</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -541,7 +541,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t xml:space="preserve"> Sound Editing</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -551,381 +551,901 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t xml:space="preserve"> Sound Mixing</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.313638385686565e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>Costume Design</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.865709246663202e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>_september</t>
+          <t>Best Supporting Actress (Patricia Arquette)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.0002111755568490331</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>Best Supporting Actor (Jared Leto)</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001542873924331416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>_february</t>
+          <t>Best Supporting Actor</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.002496564360971142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>_june</t>
+          <t>Best Film Editing</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.002526173527991708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t xml:space="preserve"> Production Design</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.002563198118753674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>thrilled</t>
+          <t xml:space="preserve"> Best Film Editing (Tom Cross)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.002654364202060568</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>_january</t>
+          <t>Best Actress (Cate Blanchett)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.003463546696318383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.003519194002057682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>sci-fi</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.003668614729892518</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>_july</t>
+          <t>_may</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.004779470842992843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>_october</t>
+          <t>_march</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.005009510171515635</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>period</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.006936487152046443</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>_march</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.007245245031934726</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>_may</t>
+          <t xml:space="preserve"> Best Actor (Matthew McConaughey)</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.007365802053876279</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>mystery</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.007488944819780281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>_april</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.007900690582335416</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.009643692966293312</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>_january</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.009995940744440988</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01102620198044317</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>comedy</t>
+          <t xml:space="preserve"> Best Cinematography</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01111471395214925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>sci-fi</t>
+          <t>_february</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01157779187554784</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>_november</t>
+          <t>_august</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01252980933550101</v>
+        <v>6.357761134831232e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>drama</t>
+          <t>Best Supporting Actor (J.K. Simmons)</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0126600854486913</v>
+        <v>0.0001140432457568003</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>animation</t>
+          <t>thrilled</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0130337840771673</v>
+        <v>0.0001668234954020425</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>romantic</t>
+          <t xml:space="preserve"> Best Makeup and Hairstyling (Adruitha Lee and Robin Mathews)</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01484475269622431</v>
+        <v>0.000380144152522669</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>_december</t>
+          <t>horror</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01809379846085644</v>
+        <v>0.0003824117451385328</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>foreign gross</t>
+          <t xml:space="preserve"> Best Original Screenplay</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.02529127690582441</v>
+        <v>0.0004145747755971396</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.02995633927408201</v>
+        <v>0.0004172408513244529</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>budget recovered opening weekend</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0493824571219856</v>
+        <v>0.0007123563873162332</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>budget ($million)</t>
+          <t>_october</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.06643371827282055</v>
+        <v>0.00114411205725164</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>opening weekend</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.07209571024212909</v>
+        <v>0.001186355060138209</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>imdb rating</t>
+          <t>Actor in a Leading Role</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.07579319630980838</v>
+        <v>0.001420115005115009</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>domestic gross</t>
+          <t>_july</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.09186465733453328</v>
+        <v>0.001717328583726326</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>budget recovered</t>
+          <t>_september</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1119801304541397</v>
+        <v>0.001746772754914211</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>average audience</t>
+          <t>war</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.1356733119042677</v>
+        <v>0.001779618008305992</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
+          <t xml:space="preserve"> Directing</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.00192229757209605</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Best Actress</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.002020073346014945</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Best Sound</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.002358188125460815</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>_june</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.002437418473197094</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Writing (original screenplay)</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.002871346710184615</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Best Animated Feature</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.00288908928879292</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Best Editing</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.002895040039130526</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>animation</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.002988747715731908</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>sequel</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.003071738319954514</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Best Adapted Screenplay</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.003521041232027668</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.00381649901292658</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.003862568355657896</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>Animated Feature Film</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.004581733264141152</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.004629564027753592</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.005386739866090491</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Make Up and Hair Styling</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.005690079913477174</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>adaptation</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.005713541297888588</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>Best Original Screenplay (Spike Jonze)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.005957026300222758</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>_december</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.006131986705123058</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>drama</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.006355349585772363</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>_november</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.006532892570951632</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>Actress in a Leading Role</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.006860597745780897</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Best Sound Editing</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.006904829292818856</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Film Editing</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.007193430477572829</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Ben Wilkins and Thomas Curley)</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.008057354748049269</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>Best Adapted Screenplay</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.009321696364252462</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>Best Actor</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.009876108434800527</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>Best Visual Effects</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.01038297242312005</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.0112231780820014</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>Best Art Direction</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.01159541573716709</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Best Director</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.01165600125880912</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>history</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.01168590201064186</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Best Sound Mixing (Craig Mann</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.01232794899989588</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>based on a true story</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.01292636317925746</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>Actress in a Supporting Role</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.01300496570237657</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>Best Original Song</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.01487460327743167</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>Best Director</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.01676189614991772</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>Best Animated Film</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.01766508646193734</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Actor in a Supporting Role</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.01943641803447984</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>average audience</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.01951031273214117</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>Original Song</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.02060409154272049</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>Best Original Screenplay</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.02156405796495742</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>budget recovered</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.02640216761280089</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>budget recovered opening weekend</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.0272123723899469</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>imdb rating</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.02834875769072259</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
+          <t>Best Supporting Actress</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0.03784291968881236</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="inlineStr">
+        <is>
+          <t>Best Picture</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>0.03962505381786232</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="inlineStr">
+        <is>
+          <t>budget ($million)</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0.04819187672185874</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="inlineStr">
+        <is>
+          <t>domestic gross</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0.04935033924180245</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="inlineStr">
+        <is>
+          <t>foreign gross</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0.05904429796412305</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="inlineStr">
+        <is>
+          <t>opening weekend</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.06225877689308793</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="inlineStr">
+        <is>
+          <t>Best Animated Feature</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.09260779311191843</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="inlineStr">
+        <is>
           <t>average critics</t>
         </is>
       </c>
-      <c r="B50" t="n">
-        <v>0.1476235955217543</v>
+      <c r="B102" t="n">
+        <v>0.1584039787904806</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B102"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Best Cinematography</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best Sound Mixing</t>
+          <t>documentary</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>_february</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -471,7 +471,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best Supporting Actor</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -481,7 +481,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best Visual Effects</t>
+          <t>period</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -491,961 +491,431 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cinematography</t>
+          <t>thrilled</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>0.0005415739670330182</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>documentary</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>0.001169089670483508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Writing (adapted screenplay)</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>0.001839853611325793</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>mystery</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>0.002228520655708604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Visual Effects</t>
+          <t>_may</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>0.002739209581505695</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sound Editing</t>
+          <t>sequel</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>0.00275496482340658</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sound Mixing</t>
+          <t>_january</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>0.003055034396497813</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Costume Design</t>
+          <t>_august</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>0.003111745596186783</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Best Supporting Actress (Patricia Arquette)</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>0.004025761885768237</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Best Supporting Actor (Jared Leto)</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>0.004140439325206975</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Best Supporting Actor</t>
+          <t>horror</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>0.004320658738341665</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Best Film Editing</t>
+          <t>sci-fi</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.004344435395451807</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Production Design</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.004581567313592584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best Film Editing (Tom Cross)</t>
+          <t>drama</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>0.004893738521360672</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Best Actress (Cate Blanchett)</t>
+          <t>_october</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.005033770138228011</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>_september</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>0.005883769948810603</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>sci-fi</t>
+          <t>_july</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>0.006239628879639507</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>_may</t>
+          <t>_april</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>0.006276788704081776</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>_march</t>
+          <t>war</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>0.006442076736109997</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>0.007280682650196385</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>0.007289337212946501</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best Actor (Matthew McConaughey)</t>
+          <t>_june</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>0.0087512791816978</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>_march</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>0.009372209925270334</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>_april</t>
+          <t>_november</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>0.00983639535121103</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>0.009990406894126671</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>_january</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>0.01110861549622175</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>_december</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>0.01147655595253953</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best Cinematography</t>
+          <t>romantic</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>0.01174853370664637</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>_february</t>
+          <t>history</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>0.01354889120035497</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>_august</t>
+          <t>comedy</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6.357761134831232e-05</v>
+        <v>0.01368484885046504</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Best Supporting Actor (J.K. Simmons)</t>
+          <t>based on a true story</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0001140432457568003</v>
+        <v>0.01401732049208755</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>thrilled</t>
+          <t>original</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0001668234954020425</v>
+        <v>0.01562842987877358</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best Makeup and Hairstyling (Adruitha Lee and Robin Mathews)</t>
+          <t>biography</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.000380144152522669</v>
+        <v>0.01895303782528706</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>horror</t>
+          <t>budget ($million)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.0003824117451385328</v>
+        <v>0.03234426866127992</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Best Original Screenplay</t>
+          <t>of gross earned abroad</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.0004145747755971396</v>
+        <v>0.03802133704265684</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>budget recovered</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.0004172408513244529</v>
+        <v>0.04508622527685123</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t>imdb rating</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.0007123563873162332</v>
+        <v>0.05474562854420212</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>_october</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.00114411205725164</v>
+        <v>0.05893427380303977</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>opening weekend</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.001186355060138209</v>
+        <v>0.06079387900757503</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Actor in a Leading Role</t>
+          <t>domestic gross</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.001420115005115009</v>
+        <v>0.07488667957663096</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>_july</t>
+          <t>foreign gross</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.001717328583726326</v>
+        <v>0.08482544565131653</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>_september</t>
+          <t>average audience</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.001746772754914211</v>
+        <v>0.1371446457472057</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>average critics</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.001779618008305992</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Directing</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>0.00192229757209605</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>Best Actress</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>0.002020073346014945</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Best Sound</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>0.002358188125460815</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>_june</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>0.002437418473197094</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Writing (original screenplay)</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>0.002871346710184615</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Best Animated Feature</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>0.00288908928879292</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="inlineStr">
-        <is>
-          <t>Best Editing</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>0.002895040039130526</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>animation</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>0.002988747715731908</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="inlineStr">
-        <is>
-          <t>sequel</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>0.003071738319954514</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Best Adapted Screenplay</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v>0.003521041232027668</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="inlineStr">
-        <is>
-          <t>romantic</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v>0.00381649901292658</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>biography</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v>0.003862568355657896</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="inlineStr">
-        <is>
-          <t>Animated Feature Film</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>0.004581733264141152</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="inlineStr">
-        <is>
-          <t>original</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>0.004629564027753592</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>comedy</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.005386739866090491</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Make Up and Hair Styling</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.005690079913477174</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>adaptation</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.005713541297888588</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" s="1" t="inlineStr">
-        <is>
-          <t>Best Original Screenplay (Spike Jonze)</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.005957026300222758</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" s="1" t="inlineStr">
-        <is>
-          <t>_december</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.006131986705123058</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" s="1" t="inlineStr">
-        <is>
-          <t>drama</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.006355349585772363</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>_november</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.006532892570951632</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" s="1" t="inlineStr">
-        <is>
-          <t>Actress in a Leading Role</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.006860597745780897</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Best Sound Editing</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.006904829292818856</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Film Editing</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.007193430477572829</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ben Wilkins and Thomas Curley)</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v>0.008057354748049269</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Best Adapted Screenplay</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v>0.009321696364252462</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" s="1" t="inlineStr">
-        <is>
-          <t>Best Actor</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v>0.009876108434800527</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" s="1" t="inlineStr">
-        <is>
-          <t>Best Visual Effects</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v>0.01038297242312005</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" s="1" t="inlineStr">
-        <is>
-          <t>Unnamed: 0</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v>0.0112231780820014</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" s="1" t="inlineStr">
-        <is>
-          <t>Best Art Direction</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v>0.01159541573716709</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Best Director</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v>0.01165600125880912</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="inlineStr">
-        <is>
-          <t>history</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>0.01168590201064186</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Best Sound Mixing (Craig Mann</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v>0.01232794899989588</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="inlineStr">
-        <is>
-          <t>based on a true story</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v>0.01292636317925746</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="inlineStr">
-        <is>
-          <t>Actress in a Supporting Role</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v>0.01300496570237657</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="inlineStr">
-        <is>
-          <t>Best Original Song</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v>0.01487460327743167</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="inlineStr">
-        <is>
-          <t>Best Director</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v>0.01676189614991772</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="inlineStr">
-        <is>
-          <t>Best Animated Film</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v>0.01766508646193734</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="inlineStr">
-        <is>
-          <t>Actor in a Supporting Role</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v>0.01943641803447984</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>average audience</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v>0.01951031273214117</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>Original Song</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>0.02060409154272049</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="inlineStr">
-        <is>
-          <t>Best Original Screenplay</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>0.02156405796495742</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="inlineStr">
-        <is>
-          <t>budget recovered</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>0.02640216761280089</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="inlineStr">
-        <is>
-          <t>budget recovered opening weekend</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.0272123723899469</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>imdb rating</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.02834875769072259</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>Best Supporting Actress</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.03784291968881236</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
-        <is>
-          <t>Best Picture</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.03962505381786232</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="inlineStr">
-        <is>
-          <t>budget ($million)</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.04819187672185874</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="inlineStr">
-        <is>
-          <t>domestic gross</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.04935033924180245</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="inlineStr">
-        <is>
-          <t>foreign gross</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.05904429796412305</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="inlineStr">
-        <is>
-          <t>opening weekend</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.06225877689308793</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="inlineStr">
-        <is>
-          <t>Best Animated Feature</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.09260779311191843</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="inlineStr">
-        <is>
-          <t>average critics</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>0.1584039787904806</v>
+        <v>0.1769084441826778</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>writing (original screenplay)</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>documentary</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>_february</t>
+          <t>production design</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -471,7 +471,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>period</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -481,7 +481,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>costume design</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -491,431 +491,891 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>thrilled</t>
+          <t>make up and hair styling</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0005415739670330182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t>best art direction</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.001169089670483508</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>best editing</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.001839853611325793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>best film editing</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.002228520655708604</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>_may</t>
+          <t>sequel</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.002739209581505695</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>sequel</t>
+          <t>film editing</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.00275496482340658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>_january</t>
+          <t>best original song</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.003055034396497813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>_august</t>
+          <t>best picture</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.003111745596186783</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>writing (adapted screenplay)</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.004025761885768237</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>best sound mixing (craig mann</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.004140439325206975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>horror</t>
+          <t>best supporting actor (j.k. simmons)</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004320658738341665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>sci-fi</t>
+          <t>best supporting actor (jared leto)</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.004344435395451807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>animation</t>
+          <t>documentary</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.004581567313592584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>drama</t>
+          <t>directing</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.004893738521360672</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>_october</t>
+          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.005033770138228011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>_september</t>
+          <t>sound editing</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.005883769948810603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>_july</t>
+          <t>best actor (matthew mcconaughey)</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.006239628879639507</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>_april</t>
+          <t>cinematography</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.006276788704081776</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.006442076736109997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>_february</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.007280682650196385</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>adaptation</t>
+          <t>sound mixing</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.007289337212946501</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>_june</t>
+          <t>actress in a leading role</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.0087512791816978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>_march</t>
+          <t>actor in a leading role</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.009372209925270334</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>_november</t>
+          <t>horror</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.00983639535121103</v>
+        <v>7.149988716084563e-06</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>_november</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.009990406894126671</v>
+        <v>1.068706935885981e-05</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.01110861549622175</v>
+        <v>4.110854571520688e-05</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>_december</t>
+          <t>_april</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.01147655595253953</v>
+        <v>4.34638763680004e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>romantic</t>
+          <t>_may</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.01174853370664637</v>
+        <v>0.0001610274590775981</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01354889120035497</v>
+        <v>0.0004622980170976967</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>comedy</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01368484885046504</v>
+        <v>0.0005681920697431775</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>based on a true story</t>
+          <t>_july</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01401732049208755</v>
+        <v>0.0006088355743365949</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.01562842987877358</v>
+        <v>0.0009435272417919515</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.01895303782528706</v>
+        <v>0.001005387271415023</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>budget ($million)</t>
+          <t>mystery</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.03234426866127992</v>
+        <v>0.001862919294679583</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>of gross earned abroad</t>
+          <t>_january</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.03802133704265684</v>
+        <v>0.00189921066630052</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>budget recovered</t>
+          <t>history</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.04508622527685123</v>
+        <v>0.001913580246913581</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>imdb rating</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.05474562854420212</v>
+        <v>0.002078582270213442</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>_october</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.05893427380303977</v>
+        <v>0.002342448451588475</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>opening weekend</t>
+          <t>best sound</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.06079387900757503</v>
+        <v>0.002421638511864075</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>domestic gross</t>
+          <t>_march</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.07488667957663096</v>
+        <v>0.002704448543328962</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>foreign gross</t>
+          <t>adaptation</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.08482544565131653</v>
+        <v>0.002947453366708336</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>average audience</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1371446457472057</v>
+        <v>0.003228851349152101</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
+          <t>war</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0.003321899933002124</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>_december</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0.003325358604077935</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>_june</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0.003835149331494497</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>_september</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0.003910937846792596</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>original song</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.004656504670069522</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>drama</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>0.005103702305416874</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>original</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0.005544869949936833</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>thrilled</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.006013164371939544</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay (spike jonze)</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0.00621678416541928</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>best sound mixing</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0.006750800568728728</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="inlineStr">
+        <is>
+          <t>biography</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0.00719473156660755</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>animation</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0.007392719412555006</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="inlineStr">
+        <is>
+          <t>best actress</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0.007422636021985873</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="inlineStr">
+        <is>
+          <t>actor in a supporting role</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>0.007925422098704655</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="inlineStr">
+        <is>
+          <t>based on a true story</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>0.007947220996179501</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="inlineStr">
+        <is>
+          <t>sci-fi</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0.008031605742890848</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="inlineStr">
+        <is>
+          <t>ben wilkins and thomas curley)</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>0.008054973790095022</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="inlineStr">
+        <is>
+          <t>best actress (cate blanchett)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0.008259613397870295</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="inlineStr">
+        <is>
+          <t>_august</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0.00833716178976467</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="inlineStr">
+        <is>
+          <t>best sound editing</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>0.008952853726873506</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="inlineStr">
+        <is>
+          <t>visual effects</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>0.009206017158664639</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="inlineStr">
+        <is>
+          <t>animated feature film</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0.009958652337995031</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="inlineStr">
+        <is>
+          <t>actress in a supporting role</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0.01036236833474488</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="inlineStr">
+        <is>
+          <t>comedy</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0.01056125447065908</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress (patricia arquette)</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0.01138592995734642</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actor</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0.01351733539391041</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>best cinematography</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0.01370981490066802</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="inlineStr">
+        <is>
+          <t>best actor</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0.01510745822478523</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>best animated film</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0.01609795532553464</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="inlineStr">
+        <is>
+          <t>of gross earned abroad</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0.01621173563270406</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="inlineStr">
+        <is>
+          <t>imdb rating</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>0.01763112258567109</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="inlineStr">
+        <is>
+          <t>romantic</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0.01774724288954231</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="inlineStr">
+        <is>
+          <t>best film editing (tom cross)</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.02012526096171919</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="inlineStr">
+        <is>
+          <t>best supporting actress</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0.02353073287784408</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="inlineStr">
+        <is>
+          <t>budget ($million)</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0.02755681648062037</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="inlineStr">
+        <is>
+          <t>best original screenplay</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0.02906074329992247</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="inlineStr">
+        <is>
+          <t>domestic gross</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0.03410849471853818</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="inlineStr">
+        <is>
+          <t>average audience</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0.03482495008799547</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="inlineStr">
+        <is>
+          <t>budget recovered</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0.04074915340052546</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0.04098967684195459</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="inlineStr">
+        <is>
+          <t>best visual effects</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>0.04353609098398426</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="inlineStr">
+        <is>
+          <t>opening weekend</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0.04608094688567507</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="inlineStr">
+        <is>
+          <t>best director</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0.05214897451695387</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
+        <is>
+          <t>best adapted screenplay</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0.05463459712552508</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
+        <is>
+          <t>foreign gross</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0.05522295682604773</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="inlineStr">
+        <is>
+          <t>best animated feature</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>0.08866293681185727</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="inlineStr">
+        <is>
           <t>average critics</t>
         </is>
       </c>
-      <c r="B49" t="n">
-        <v>0.1769084441826778</v>
+      <c r="B95" t="n">
+        <v>0.09382186086383691</v>
       </c>
     </row>
   </sheetData>

--- a/stats.xlsx
+++ b/stats.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B95"/>
+  <dimension ref="A1:B93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>writing (original screenplay)</t>
+          <t xml:space="preserve">best supporting actress </t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -451,7 +451,7 @@
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>remake</t>
+          <t>documentary</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -461,7 +461,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>production design</t>
+          <t>best animated film</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -471,7 +471,7 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>period</t>
+          <t>fantasy</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -481,7 +481,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>costume design</t>
+          <t>action</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -491,7 +491,7 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>make up and hair styling</t>
+          <t>best film editing</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -501,7 +501,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>best art direction</t>
+          <t xml:space="preserve">best film editing </t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -511,7 +511,7 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>best editing</t>
+          <t xml:space="preserve">best makeup and hairstyling </t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -521,7 +521,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>best film editing</t>
+          <t xml:space="preserve">writing </t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -531,7 +531,7 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>sequel</t>
+          <t xml:space="preserve">best original screenplay </t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -541,7 +541,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>film editing</t>
+          <t>visual effects</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -551,7 +551,7 @@
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>best original song</t>
+          <t>best sound</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -561,7 +561,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>best picture</t>
+          <t>sound mixing</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -571,7 +571,7 @@
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>writing (adapted screenplay)</t>
+          <t>best sound mixing</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -581,7 +581,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>best sound mixing (craig mann</t>
+          <t xml:space="preserve">best sound mixing </t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -591,7 +591,7 @@
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>best supporting actor (j.k. simmons)</t>
+          <t>best supporting actor</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -601,7 +601,7 @@
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>best supporting actor (jared leto)</t>
+          <t>sound editing</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -611,7 +611,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>documentary</t>
+          <t>production design</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -621,7 +621,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>directing</t>
+          <t>make up and hair styling</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -631,7 +631,7 @@
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>best makeup and hairstyling (adruitha lee and robin mathews)</t>
+          <t>best actor</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -641,7 +641,7 @@
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sound editing</t>
+          <t xml:space="preserve">best actress </t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -651,7 +651,7 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>best actor (matthew mcconaughey)</t>
+          <t>film editing</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -661,7 +661,7 @@
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>cinematography</t>
+          <t>_november</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -671,7 +671,7 @@
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>western</t>
+          <t>period</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -681,7 +681,7 @@
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>_february</t>
+          <t>actress in a leading role</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -691,7 +691,7 @@
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>sound mixing</t>
+          <t>sports</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -701,7 +701,7 @@
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>actress in a leading role</t>
+          <t>_january</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -711,7 +711,7 @@
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>actor in a leading role</t>
+          <t>_february</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -721,171 +721,171 @@
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>horror</t>
+          <t>family</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>7.149988716084563e-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>_november</t>
+          <t>remake</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.068706935885981e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>sports</t>
+          <t>western</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.110854571520688e-05</v>
+        <v>4.346151142858692e-06</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>_april</t>
+          <t>_july</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.34638763680004e-05</v>
+        <v>1.075988875184136e-05</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>_may</t>
+          <t>original</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0001610274590775981</v>
+        <v>1.877722146737061e-05</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>family</t>
+          <t>musical</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.0004622980170976967</v>
+        <v>6.757933352044166e-05</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>action</t>
+          <t>_april</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.0005681920697431775</v>
+        <v>8.645821829167791e-05</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>_july</t>
+          <t>_august</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.0006088355743365949</v>
+        <v>0.0001022322444252712</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>crime</t>
+          <t>romantic</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0009435272417919515</v>
+        <v>0.0001146956523942776</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>fantasy</t>
+          <t>animation</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.001005387271415023</v>
+        <v>0.0001376965117534434</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>mystery</t>
+          <t>best original song</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.001862919294679583</v>
+        <v>0.0001955768014284913</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>_january</t>
+          <t>_december</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.00189921066630052</v>
+        <v>0.0002980051807258215</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>history</t>
+          <t>sci-fi</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001913580246913581</v>
+        <v>0.0003839912514451736</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>adventure</t>
+          <t>_june</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.002078582270213442</v>
+        <v>0.0006765969813327406</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>_october</t>
+          <t>_may</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.002342448451588475</v>
+        <v>0.0008353747302605807</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>best sound</t>
+          <t>sequel</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.002421638511864075</v>
+        <v>0.0009457856152396074</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>_march</t>
+          <t>crime</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.002704448543328962</v>
+        <v>0.001015740336431498</v>
       </c>
     </row>
     <row r="47">
@@ -895,67 +895,67 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.002947453366708336</v>
+        <v>0.001374349153529432</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>musical</t>
+          <t xml:space="preserve">best supporting actor </t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.003228851349152101</v>
+        <v>0.001825383479999252</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>war</t>
+          <t>mystery</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.003321899933002124</v>
+        <v>0.001895546097226769</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>_december</t>
+          <t>_september</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.003325358604077935</v>
+        <v>0.001990323402088107</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>_june</t>
+          <t>actress in a supporting role</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.003835149331494497</v>
+        <v>0.00204359904565807</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>_september</t>
+          <t>horror</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.003910937846792596</v>
+        <v>0.002056619509509297</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>original song</t>
+          <t>biography</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.004656504670069522</v>
+        <v>0.002132247542828972</v>
       </c>
     </row>
     <row r="54">
@@ -965,357 +965,357 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.005103702305416874</v>
+        <v>0.00218588602853195</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>original</t>
+          <t>best cinematography</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.005544869949936833</v>
+        <v>0.002226320584684928</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>thrilled</t>
+          <t>costume design</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.006013164371939544</v>
+        <v>0.00237917268525432</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>best original screenplay (spike jonze)</t>
+          <t>actor in a supporting role</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.00621678416541928</v>
+        <v>0.002471389914409728</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>best sound mixing</t>
+          <t>comedy</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.006750800568728728</v>
+        <v>0.002565729845101043</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>biography</t>
+          <t>animated feature film</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.00719473156660755</v>
+        <v>0.002584826687479651</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>animation</t>
+          <t>best sound editing</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.007392719412555006</v>
+        <v>0.002924114588883666</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>best actress</t>
+          <t>history</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.007422636021985873</v>
+        <v>0.002951035253495302</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>actor in a supporting role</t>
+          <t>adventure</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.007925422098704655</v>
+        <v>0.00320826641977849</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>based on a true story</t>
+          <t>_october</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.007947220996179501</v>
+        <v>0.003636945710116443</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>sci-fi</t>
+          <t>best director</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.008031605742890848</v>
+        <v>0.003879041463127825</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>ben wilkins and thomas curley)</t>
+          <t>based on a true story</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.008054973790095022</v>
+        <v>0.004069291621744895</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>best actress (cate blanchett)</t>
+          <t>_march</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.008259613397870295</v>
+        <v>0.004561408031180899</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>_august</t>
+          <t>best art direction</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.00833716178976467</v>
+        <v>0.005299802713492197</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>best sound editing</t>
+          <t xml:space="preserve">best actor </t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.008952853726873506</v>
+        <v>0.005733654066817126</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>visual effects</t>
+          <t>Unnamed: 0</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.009206017158664639</v>
+        <v>0.006216795573645906</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>animated feature film</t>
+          <t>best editing</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.009958652337995031</v>
+        <v>0.006523548267998678</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>actress in a supporting role</t>
+          <t>war</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.01036236833474488</v>
+        <v>0.007467409317809521</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>comedy</t>
+          <t>directing</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.01056125447065908</v>
+        <v>0.008735754220178485</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>best supporting actress (patricia arquette)</t>
+          <t>original song</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.01138592995734642</v>
+        <v>0.00879974418896015</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>best supporting actor</t>
+          <t>actor in a leading role</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.01351733539391041</v>
+        <v>0.009687531365310316</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>best cinematography</t>
+          <t>thrilled</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.01370981490066802</v>
+        <v>0.01000114979730375</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>best actor</t>
+          <t>of gross earned abroad</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.01510745822478523</v>
+        <v>0.0105968260793211</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="inlineStr">
         <is>
-          <t>best animated film</t>
+          <t>cinematography</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.01609795532553464</v>
+        <v>0.01079068085839697</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>of gross earned abroad</t>
+          <t>budget ($million)</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.01621173563270406</v>
+        <v>0.01328156439994955</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>imdb rating</t>
+          <t>best adapted screenplay</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.01763112258567109</v>
+        <v>0.01554044751499404</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>romantic</t>
+          <t>best supporting actress</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.01774724288954231</v>
+        <v>0.01688356691175396</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>best film editing (tom cross)</t>
+          <t>best actress</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.02012526096171919</v>
+        <v>0.01771335198829432</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>best supporting actress</t>
+          <t>best visual effects</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02353073287784408</v>
+        <v>0.01951851757329203</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>budget ($million)</t>
+          <t>domestic gross</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02755681648062037</v>
+        <v>0.01959114287651188</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>best original screenplay</t>
+          <t>imdb rating</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.02906074329992247</v>
+        <v>0.02263860488498571</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>domestic gross</t>
+          <t>foreign gross</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.03410849471853818</v>
+        <v>0.02328447311586012</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>average audience</t>
+          <t>best animated feature</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.03482495008799547</v>
+        <v>0.02645486007806919</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>budget recovered</t>
+          <t>average audience</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.04074915340052546</v>
+        <v>0.02925654390866723</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>Unnamed: 0</t>
+          <t>budget recovered</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.04098967684195459</v>
+        <v>0.03694979160749559</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
         <is>
-          <t>best visual effects</t>
+          <t>best original screenplay</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.04353609098398426</v>
+        <v>0.04007796251992921</v>
       </c>
     </row>
     <row r="90">
@@ -1325,57 +1325,37 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.04608094688567507</v>
+        <v>0.04199393327697905</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>best director</t>
+          <t>best picture</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.05214897451695387</v>
+        <v>0.05520331910713354</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="inlineStr">
         <is>
-          <t>best adapted screenplay</t>
+          <t>average critics</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.05463459712552508</v>
+        <v>0.0821856546229119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
         <is>
-          <t>foreign gross</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.05522295682604773</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
-          <t>best animated feature</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.08866293681185727</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
-        <is>
-          <t>average critics</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.09382186086383691</v>
+        <v>0.3917182559806983</v>
       </c>
     </row>
   </sheetData>
